--- a/analyze/stats.xlsx
+++ b/analyze/stats.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD9E185-1762-4A4C-A899-01BE785D49CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC676734-2B0A-4433-B8DB-47941315B5AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="30">
   <si>
     <t>投资收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,7 +135,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7-14-24~【2018-2019】</t>
+    <t>7-14-24~【2018-2019.0429】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-14-24~【2018-2019.04.26】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +147,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +163,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -176,17 +190,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12518,6 +12539,1974 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$540</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$539:$M$539</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$540:$M$540</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB7F-451C-BBF6-AF57E9C9ED4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$541</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$539:$M$539</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$541:$M$541</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB7F-451C-BBF6-AF57E9C9ED4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="564584248"/>
+        <c:axId val="564579768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="564584248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564579768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564579768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564584248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$560</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$559:$M$559</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$560:$M$560</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4FC-43BB-A470-0C4D039E7941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$561</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$559:$M$559</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$561:$M$561</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4FC-43BB-A470-0C4D039E7941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="643835640"/>
+        <c:axId val="643836280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="643835640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643836280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="643836280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643835640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$577</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$576:$M$576</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$577:$M$577</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC1E-4487-801A-3081E330523E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$578</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$576:$M$576</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$578:$M$578</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC1E-4487-801A-3081E330523E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="564573368"/>
+        <c:axId val="564570168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="564573368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564570168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564570168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564573368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$595</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$594:$M$594</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$595:$M$595</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83C0-4702-B330-2BB8C0691C48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$596</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$594:$M$594</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$596:$M$596</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-83C0-4702-B330-2BB8C0691C48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="643871800"/>
+        <c:axId val="643871160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="643871800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643871160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="643871160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643871800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -13021,7 +15010,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -13539,7 +15528,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -14057,7 +16046,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -14575,7 +16564,499 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$60:$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$61:$M$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7CA-4FC7-BE00-D5D68F425D22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$60:$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$62:$M$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7CA-4FC7-BE00-D5D68F425D22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="413350768"/>
+        <c:axId val="413351088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="413350768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413351088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413351088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413350768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -15093,7 +17574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -15108,32 +17589,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>7-14-24</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15175,7 +17630,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>compare!$A$95</c:f>
+              <c:f>compare!$A$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15196,7 +17651,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>compare!$B$94:$M$94</c:f>
+              <c:f>compare!$B$97:$M$97</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -15240,52 +17695,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare!$B$95:$M$95</c:f>
+              <c:f>compare!$B$98:$M$98</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>1.5832106038291605E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92</c:v>
+                  <c:v>3.3873343151693665E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>6.6273932253313697E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>339</c:v>
+                  <c:v>0.1248159057437408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>469</c:v>
+                  <c:v>0.17268041237113402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>542</c:v>
+                  <c:v>0.19955817378497792</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>411</c:v>
+                  <c:v>0.15132547864506626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>253</c:v>
+                  <c:v>9.3151693667157587E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>133</c:v>
+                  <c:v>4.8969072164948453E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77</c:v>
+                  <c:v>2.8350515463917526E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53</c:v>
+                  <c:v>1.95139911634757E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>124</c:v>
+                  <c:v>4.5655375552282766E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6132-48FE-A776-A913C3BE1A87}"/>
+              <c16:uniqueId val="{00000000-6EC3-42EB-9C11-DCB7D82BD79C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15294,7 +17749,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>compare!$A$96</c:f>
+              <c:f>compare!$A$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15315,7 +17770,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>compare!$B$94:$M$94</c:f>
+              <c:f>compare!$B$97:$M$97</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -15359,52 +17814,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare!$B$96:$M$96</c:f>
+              <c:f>compare!$B$99:$M$99</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>4.050073637702504E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>1.6568483063328424E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127</c:v>
+                  <c:v>4.6759941089837997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>343</c:v>
+                  <c:v>0.12628865979381443</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>467</c:v>
+                  <c:v>0.1719440353460972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>562</c:v>
+                  <c:v>0.20692194403534608</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>413</c:v>
+                  <c:v>0.15206185567010308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>267</c:v>
+                  <c:v>9.8306332842415314E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>169</c:v>
+                  <c:v>6.2223858615611194E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>111</c:v>
+                  <c:v>4.0868924889543447E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>202</c:v>
+                  <c:v>7.4374079528718703E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6132-48FE-A776-A913C3BE1A87}"/>
+              <c16:uniqueId val="{00000001-6EC3-42EB-9C11-DCB7D82BD79C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15418,11 +17873,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="547908664"/>
-        <c:axId val="547908344"/>
+        <c:axId val="564605368"/>
+        <c:axId val="564607288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="547908664"/>
+        <c:axId val="564605368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15465,7 +17920,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547908344"/>
+        <c:crossAx val="564607288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15473,7 +17928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="547908344"/>
+        <c:axId val="564607288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15493,7 +17948,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15524,7 +17979,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547908664"/>
+        <c:crossAx val="564605368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15611,7 +18066,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -15667,7 +18122,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>list!$A$61</c:f>
+              <c:f>compare!$A$118</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15688,7 +18143,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>list!$B$60:$M$60</c:f>
+              <c:f>compare!$B$117:$M$117</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -15732,52 +18187,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>list!$B$61:$M$61</c:f>
+              <c:f>compare!$B$118:$M$118</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>2.0671834625322998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>4.7249907715023992E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194</c:v>
+                  <c:v>7.7519379844961239E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>350</c:v>
+                  <c:v>0.14322628276116647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>477</c:v>
+                  <c:v>0.1849390919158361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>524</c:v>
+                  <c:v>0.19490586932447398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>422</c:v>
+                  <c:v>0.1303063861203396</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>234</c:v>
+                  <c:v>7.9734219269102985E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>142</c:v>
+                  <c:v>4.0974529346622372E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67</c:v>
+                  <c:v>2.1410114433370247E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56</c:v>
+                  <c:v>1.9564414913252122E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>3.9497969730527868E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B7CA-4FC7-BE00-D5D68F425D22}"/>
+              <c16:uniqueId val="{00000000-E4F9-40FE-B38A-DFD9161423E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15786,7 +18241,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>list!$A$62</c:f>
+              <c:f>compare!$A$119</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15807,7 +18262,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>list!$B$60:$M$60</c:f>
+              <c:f>compare!$B$117:$M$117</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -15851,52 +18306,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>list!$B$62:$M$62</c:f>
+              <c:f>compare!$B$119:$M$119</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>3.6913990402362494E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>1.6980435585086748E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>201</c:v>
+                  <c:v>5.1310446659283866E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>466</c:v>
+                  <c:v>0.12513842746400886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>609</c:v>
+                  <c:v>0.17386489479512734</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>551</c:v>
+                  <c:v>0.21040974529346623</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>373</c:v>
+                  <c:v>0.14654854189737912</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199</c:v>
+                  <c:v>0.10372831303063861</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104</c:v>
+                  <c:v>5.7216685123661869E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>4.0974529346622372E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94</c:v>
+                  <c:v>7.0505721668512364E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B7CA-4FC7-BE00-D5D68F425D22}"/>
+              <c16:uniqueId val="{00000001-E4F9-40FE-B38A-DFD9161423E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15910,11 +18365,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="413350768"/>
-        <c:axId val="413351088"/>
+        <c:axId val="643844280"/>
+        <c:axId val="643844920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="413350768"/>
+        <c:axId val="643844280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15957,7 +18412,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413351088"/>
+        <c:crossAx val="643844920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15965,7 +18420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413351088"/>
+        <c:axId val="643844920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15985,7 +18440,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -16016,7 +18471,499 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413350768"/>
+        <c:crossAx val="643844280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$136</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$135:$M$135</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$136:$M$136</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.0671834625322998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7249907715023992E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7519379844961239E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14322628276116647</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1849390919158361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19490586932447398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1303063861203396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9734219269102985E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0974529346622372E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1410114433370247E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9564414913252122E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9497969730527868E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCB0-413B-B391-6CF1E31FF34C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$137</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$135:$M$135</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$137:$M$137</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0605389442598741E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4027316352897749E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.278700627537837E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12255444813584349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17091177556293835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20782576596530086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15356220007382798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10335917312661498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4230343300110737E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5437430786267994E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1613141380583237E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCB0-413B-B391-6CF1E31FF34C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="658090488"/>
+        <c:axId val="658087288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658090488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658087288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658087288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658090488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19803,7 +22750,247 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors38.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors39.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors40.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors41.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors42.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors43.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -35636,7 +38823,3025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style38.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style39.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style40.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style41.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style42.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style43.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -41116,6 +47321,321 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7329524" cy="1157619"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="图片 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07872444-2398-44E7-9A52-B56CAC6D5A46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="90083640"/>
+          <a:ext cx="7329524" cy="1157619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>530</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881A61B9-D663-4D45-AA72-C2B8BD71C320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>548</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542900</xdr:colOff>
+      <xdr:row>557</xdr:row>
+      <xdr:rowOff>102660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF5523D-D93B-4708-8E9A-678319361E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="96042480"/>
+          <a:ext cx="7820000" cy="1680000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>548</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="68" name="图表 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485EC21F-E576-4AD9-993B-D1CA54A70A34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>565</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114328</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>157920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="图片 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22621E24-893F-4DD4-87B5-EA3C0AD02DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="99021900"/>
+          <a:ext cx="7391428" cy="1560000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>565</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>580</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="71" name="图表 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386F6651-B150-4695-9128-61810AB9221E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>52425</xdr:colOff>
+      <xdr:row>591</xdr:row>
+      <xdr:rowOff>151730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="图片 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA66DEC6-AEB8-478D-BB23-1CCAE85DCAE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655321" y="102176581"/>
+          <a:ext cx="7329524" cy="1553809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>582</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>598</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="74" name="图表 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E01A5D7-4840-41F2-8A78-ACFA00C53C98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -41565,25 +48085,69 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76228</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>157920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE706D1-8130-4721-B5EB-4D1ADA54153B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="99021900"/>
+          <a:ext cx="7391428" cy="1560000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="图表 16">
+        <xdr:cNvPr id="12" name="图表 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C0B15D-5E46-4708-8FBB-B7B3F06BD242}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EEC6F1-B559-4786-9CD4-38486A805FF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41595,7 +48159,123 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1544EE6-6A64-4B0A-BF6C-F6E45EDF9E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14325</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>151730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32559C4A-9AF9-4A7B-9319-90F69C7B34B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655321" y="102176581"/>
+          <a:ext cx="7329524" cy="1553809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="图表 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8639F7-C0DC-4019-92AA-8ABAC0BE1B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -41867,10 +48547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC524"/>
+  <dimension ref="A1:AC596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A527" sqref="A527"/>
+    <sheetView topLeftCell="A568" workbookViewId="0">
+      <selection activeCell="A598" sqref="A598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -45704,7 +52384,7 @@
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.25">
@@ -45825,6 +52505,506 @@
       </c>
       <c r="M524" s="1">
         <v>202</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B539" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J539" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K539" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L539" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M539" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1</v>
+      </c>
+      <c r="B540" s="1">
+        <v>56</v>
+      </c>
+      <c r="C540" s="1">
+        <v>128</v>
+      </c>
+      <c r="D540" s="1">
+        <v>210</v>
+      </c>
+      <c r="E540" s="1">
+        <v>388</v>
+      </c>
+      <c r="F540" s="1">
+        <v>501</v>
+      </c>
+      <c r="G540" s="1">
+        <v>528</v>
+      </c>
+      <c r="H540" s="1">
+        <v>353</v>
+      </c>
+      <c r="I540" s="1">
+        <v>216</v>
+      </c>
+      <c r="J540" s="1">
+        <v>111</v>
+      </c>
+      <c r="K540" s="1">
+        <v>58</v>
+      </c>
+      <c r="L540" s="1">
+        <v>53</v>
+      </c>
+      <c r="M540" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>0</v>
+      </c>
+      <c r="B541" s="1">
+        <v>1</v>
+      </c>
+      <c r="C541" s="1">
+        <v>13</v>
+      </c>
+      <c r="D541" s="1">
+        <v>53</v>
+      </c>
+      <c r="E541" s="1">
+        <v>133</v>
+      </c>
+      <c r="F541" s="1">
+        <v>366</v>
+      </c>
+      <c r="G541" s="1">
+        <v>464</v>
+      </c>
+      <c r="H541" s="1">
+        <v>565</v>
+      </c>
+      <c r="I541" s="1">
+        <v>403</v>
+      </c>
+      <c r="J541" s="1">
+        <v>264</v>
+      </c>
+      <c r="K541" s="1">
+        <v>153</v>
+      </c>
+      <c r="L541" s="1">
+        <v>106</v>
+      </c>
+      <c r="M541" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B559" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K559" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L559" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M559" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1</v>
+      </c>
+      <c r="B560" s="1">
+        <v>56</v>
+      </c>
+      <c r="C560" s="1">
+        <v>128</v>
+      </c>
+      <c r="D560" s="1">
+        <v>210</v>
+      </c>
+      <c r="E560" s="1">
+        <v>388</v>
+      </c>
+      <c r="F560" s="1">
+        <v>501</v>
+      </c>
+      <c r="G560" s="1">
+        <v>528</v>
+      </c>
+      <c r="H560" s="1">
+        <v>353</v>
+      </c>
+      <c r="I560" s="1">
+        <v>216</v>
+      </c>
+      <c r="J560" s="1">
+        <v>111</v>
+      </c>
+      <c r="K560" s="1">
+        <v>58</v>
+      </c>
+      <c r="L560" s="1">
+        <v>53</v>
+      </c>
+      <c r="M560" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>0</v>
+      </c>
+      <c r="B561" s="1">
+        <v>0</v>
+      </c>
+      <c r="C561" s="1">
+        <v>12</v>
+      </c>
+      <c r="D561" s="1">
+        <v>45</v>
+      </c>
+      <c r="E561" s="1">
+        <v>147</v>
+      </c>
+      <c r="F561" s="1">
+        <v>337</v>
+      </c>
+      <c r="G561" s="1">
+        <v>490</v>
+      </c>
+      <c r="H561" s="1">
+        <v>564</v>
+      </c>
+      <c r="I561" s="1">
+        <v>405</v>
+      </c>
+      <c r="J561" s="1">
+        <v>274</v>
+      </c>
+      <c r="K561" s="1">
+        <v>158</v>
+      </c>
+      <c r="L561" s="1">
+        <v>100</v>
+      </c>
+      <c r="M561" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B576" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I576" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K576" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L576" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M576" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1</v>
+      </c>
+      <c r="B577" s="1">
+        <v>56</v>
+      </c>
+      <c r="C577" s="1">
+        <v>128</v>
+      </c>
+      <c r="D577" s="1">
+        <v>210</v>
+      </c>
+      <c r="E577" s="1">
+        <v>388</v>
+      </c>
+      <c r="F577" s="1">
+        <v>501</v>
+      </c>
+      <c r="G577" s="1">
+        <v>528</v>
+      </c>
+      <c r="H577" s="1">
+        <v>353</v>
+      </c>
+      <c r="I577" s="1">
+        <v>216</v>
+      </c>
+      <c r="J577" s="1">
+        <v>111</v>
+      </c>
+      <c r="K577" s="1">
+        <v>58</v>
+      </c>
+      <c r="L577" s="1">
+        <v>53</v>
+      </c>
+      <c r="M577" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>0</v>
+      </c>
+      <c r="B578" s="1">
+        <v>0</v>
+      </c>
+      <c r="C578" s="1">
+        <v>10</v>
+      </c>
+      <c r="D578" s="1">
+        <v>46</v>
+      </c>
+      <c r="E578" s="1">
+        <v>139</v>
+      </c>
+      <c r="F578" s="1">
+        <v>339</v>
+      </c>
+      <c r="G578" s="1">
+        <v>471</v>
+      </c>
+      <c r="H578" s="1">
+        <v>570</v>
+      </c>
+      <c r="I578" s="1">
+        <v>397</v>
+      </c>
+      <c r="J578" s="1">
+        <v>281</v>
+      </c>
+      <c r="K578" s="1">
+        <v>155</v>
+      </c>
+      <c r="L578" s="1">
+        <v>111</v>
+      </c>
+      <c r="M578" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B594" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K594" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L594" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1</v>
+      </c>
+      <c r="B595" s="1">
+        <v>56</v>
+      </c>
+      <c r="C595" s="1">
+        <v>128</v>
+      </c>
+      <c r="D595" s="1">
+        <v>210</v>
+      </c>
+      <c r="E595" s="1">
+        <v>388</v>
+      </c>
+      <c r="F595" s="1">
+        <v>501</v>
+      </c>
+      <c r="G595" s="1">
+        <v>528</v>
+      </c>
+      <c r="H595" s="1">
+        <v>353</v>
+      </c>
+      <c r="I595" s="1">
+        <v>216</v>
+      </c>
+      <c r="J595" s="1">
+        <v>111</v>
+      </c>
+      <c r="K595" s="1">
+        <v>58</v>
+      </c>
+      <c r="L595" s="1">
+        <v>53</v>
+      </c>
+      <c r="M595" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>0</v>
+      </c>
+      <c r="B596" s="1">
+        <v>0</v>
+      </c>
+      <c r="C596" s="1">
+        <v>11</v>
+      </c>
+      <c r="D596" s="1">
+        <v>38</v>
+      </c>
+      <c r="E596" s="1">
+        <v>143</v>
+      </c>
+      <c r="F596" s="1">
+        <v>332</v>
+      </c>
+      <c r="G596" s="1">
+        <v>463</v>
+      </c>
+      <c r="H596" s="1">
+        <v>563</v>
+      </c>
+      <c r="I596" s="1">
+        <v>416</v>
+      </c>
+      <c r="J596" s="1">
+        <v>280</v>
+      </c>
+      <c r="K596" s="1">
+        <v>174</v>
+      </c>
+      <c r="L596" s="1">
+        <v>96</v>
+      </c>
+      <c r="M596" s="1">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -45837,10 +53017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A7428-0272-4621-8266-47B00E14046B}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -46496,12 +53676,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>3</v>
       </c>
@@ -46539,7 +53719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -46579,8 +53759,11 @@
       <c r="M95" s="1">
         <v>124</v>
       </c>
+      <c r="N95" s="1">
+        <v>2716</v>
+      </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -46619,11 +53802,709 @@
       </c>
       <c r="M96" s="1">
         <v>202</v>
+      </c>
+      <c r="N96" s="1">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="3">
+        <f>B95/N95</f>
+        <v>1.5832106038291605E-2</v>
+      </c>
+      <c r="C98" s="3">
+        <f>C95/N95</f>
+        <v>3.3873343151693665E-2</v>
+      </c>
+      <c r="D98" s="3">
+        <f>D95/N95</f>
+        <v>6.6273932253313697E-2</v>
+      </c>
+      <c r="E98" s="3">
+        <f>E95/N95</f>
+        <v>0.1248159057437408</v>
+      </c>
+      <c r="F98" s="3">
+        <f>F95/N95</f>
+        <v>0.17268041237113402</v>
+      </c>
+      <c r="G98" s="3">
+        <f>G95/N95</f>
+        <v>0.19955817378497792</v>
+      </c>
+      <c r="H98" s="3">
+        <f>H95/N95</f>
+        <v>0.15132547864506626</v>
+      </c>
+      <c r="I98" s="3">
+        <f>I95/N95</f>
+        <v>9.3151693667157587E-2</v>
+      </c>
+      <c r="J98" s="3">
+        <f>J95/N95</f>
+        <v>4.8969072164948453E-2</v>
+      </c>
+      <c r="K98" s="3">
+        <f>K95/N95</f>
+        <v>2.8350515463917526E-2</v>
+      </c>
+      <c r="L98" s="3">
+        <f>L95/N95</f>
+        <v>1.95139911634757E-2</v>
+      </c>
+      <c r="M98" s="3">
+        <f>M95/N95</f>
+        <v>4.5655375552282766E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="3">
+        <f>B96/N96</f>
+        <v>0</v>
+      </c>
+      <c r="C99" s="3">
+        <f>C96/N96</f>
+        <v>4.050073637702504E-3</v>
+      </c>
+      <c r="D99" s="3">
+        <f>D96/N96</f>
+        <v>1.6568483063328424E-2</v>
+      </c>
+      <c r="E99" s="3">
+        <f>E96/N96</f>
+        <v>4.6759941089837997E-2</v>
+      </c>
+      <c r="F99" s="3">
+        <f>F96/N96</f>
+        <v>0.12628865979381443</v>
+      </c>
+      <c r="G99" s="3">
+        <f>G96/N96</f>
+        <v>0.1719440353460972</v>
+      </c>
+      <c r="H99" s="3">
+        <f>H96/N96</f>
+        <v>0.20692194403534608</v>
+      </c>
+      <c r="I99" s="3">
+        <f>I96/N96</f>
+        <v>0.15206185567010308</v>
+      </c>
+      <c r="J99" s="3">
+        <f>J96/N96</f>
+        <v>9.8306332842415314E-2</v>
+      </c>
+      <c r="K99" s="3">
+        <f>K96/N96</f>
+        <v>6.2223858615611194E-2</v>
+      </c>
+      <c r="L99" s="3">
+        <f>L96/N96</f>
+        <v>4.0868924889543447E-2</v>
+      </c>
+      <c r="M99" s="3">
+        <f>M96/N96</f>
+        <v>7.4374079528718703E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1">
+        <v>56</v>
+      </c>
+      <c r="C115" s="1">
+        <v>128</v>
+      </c>
+      <c r="D115" s="1">
+        <v>210</v>
+      </c>
+      <c r="E115" s="1">
+        <v>388</v>
+      </c>
+      <c r="F115" s="1">
+        <v>501</v>
+      </c>
+      <c r="G115" s="1">
+        <v>528</v>
+      </c>
+      <c r="H115" s="1">
+        <v>353</v>
+      </c>
+      <c r="I115" s="1">
+        <v>216</v>
+      </c>
+      <c r="J115" s="1">
+        <v>111</v>
+      </c>
+      <c r="K115" s="1">
+        <v>58</v>
+      </c>
+      <c r="L115" s="1">
+        <v>53</v>
+      </c>
+      <c r="M115" s="1">
+        <v>107</v>
+      </c>
+      <c r="N115" s="1">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>10</v>
+      </c>
+      <c r="D116" s="1">
+        <v>46</v>
+      </c>
+      <c r="E116" s="1">
+        <v>139</v>
+      </c>
+      <c r="F116" s="1">
+        <v>339</v>
+      </c>
+      <c r="G116" s="1">
+        <v>471</v>
+      </c>
+      <c r="H116" s="1">
+        <v>570</v>
+      </c>
+      <c r="I116" s="1">
+        <v>397</v>
+      </c>
+      <c r="J116" s="1">
+        <v>281</v>
+      </c>
+      <c r="K116" s="1">
+        <v>155</v>
+      </c>
+      <c r="L116" s="1">
+        <v>111</v>
+      </c>
+      <c r="M116" s="1">
+        <v>191</v>
+      </c>
+      <c r="N116" s="1">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="3">
+        <f>B115/N115</f>
+        <v>2.0671834625322998E-2</v>
+      </c>
+      <c r="C118" s="3">
+        <f>C115/N115</f>
+        <v>4.7249907715023992E-2</v>
+      </c>
+      <c r="D118" s="3">
+        <f>D115/N115</f>
+        <v>7.7519379844961239E-2</v>
+      </c>
+      <c r="E118" s="3">
+        <f>E115/N115</f>
+        <v>0.14322628276116647</v>
+      </c>
+      <c r="F118" s="3">
+        <f>F115/N115</f>
+        <v>0.1849390919158361</v>
+      </c>
+      <c r="G118" s="3">
+        <f>G115/N115</f>
+        <v>0.19490586932447398</v>
+      </c>
+      <c r="H118" s="3">
+        <f>H115/N115</f>
+        <v>0.1303063861203396</v>
+      </c>
+      <c r="I118" s="3">
+        <f>I115/N115</f>
+        <v>7.9734219269102985E-2</v>
+      </c>
+      <c r="J118" s="3">
+        <f>J115/N115</f>
+        <v>4.0974529346622372E-2</v>
+      </c>
+      <c r="K118" s="3">
+        <f>K115/N115</f>
+        <v>2.1410114433370247E-2</v>
+      </c>
+      <c r="L118" s="3">
+        <f>L115/N115</f>
+        <v>1.9564414913252122E-2</v>
+      </c>
+      <c r="M118" s="3">
+        <f>M115/N115</f>
+        <v>3.9497969730527868E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="3">
+        <f>B116/N116</f>
+        <v>0</v>
+      </c>
+      <c r="C119" s="3">
+        <f>C116/N116</f>
+        <v>3.6913990402362494E-3</v>
+      </c>
+      <c r="D119" s="3">
+        <f>D116/N116</f>
+        <v>1.6980435585086748E-2</v>
+      </c>
+      <c r="E119" s="3">
+        <f>E116/N116</f>
+        <v>5.1310446659283866E-2</v>
+      </c>
+      <c r="F119" s="3">
+        <f>F116/N116</f>
+        <v>0.12513842746400886</v>
+      </c>
+      <c r="G119" s="3">
+        <f>G116/N116</f>
+        <v>0.17386489479512734</v>
+      </c>
+      <c r="H119" s="3">
+        <f>H116/N116</f>
+        <v>0.21040974529346623</v>
+      </c>
+      <c r="I119" s="3">
+        <f>I116/N116</f>
+        <v>0.14654854189737912</v>
+      </c>
+      <c r="J119" s="3">
+        <f>J116/N116</f>
+        <v>0.10372831303063861</v>
+      </c>
+      <c r="K119" s="3">
+        <f>K116/N116</f>
+        <v>5.7216685123661869E-2</v>
+      </c>
+      <c r="L119" s="3">
+        <f>L116/N116</f>
+        <v>4.0974529346622372E-2</v>
+      </c>
+      <c r="M119" s="3">
+        <f>M116/N116</f>
+        <v>7.0505721668512364E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="1">
+        <v>56</v>
+      </c>
+      <c r="C133" s="1">
+        <v>128</v>
+      </c>
+      <c r="D133" s="1">
+        <v>210</v>
+      </c>
+      <c r="E133" s="1">
+        <v>388</v>
+      </c>
+      <c r="F133" s="1">
+        <v>501</v>
+      </c>
+      <c r="G133" s="1">
+        <v>528</v>
+      </c>
+      <c r="H133" s="1">
+        <v>353</v>
+      </c>
+      <c r="I133" s="1">
+        <v>216</v>
+      </c>
+      <c r="J133" s="1">
+        <v>111</v>
+      </c>
+      <c r="K133" s="1">
+        <v>58</v>
+      </c>
+      <c r="L133" s="1">
+        <v>53</v>
+      </c>
+      <c r="M133" s="1">
+        <v>107</v>
+      </c>
+      <c r="N133" s="1">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>11</v>
+      </c>
+      <c r="D134" s="1">
+        <v>38</v>
+      </c>
+      <c r="E134" s="1">
+        <v>143</v>
+      </c>
+      <c r="F134" s="1">
+        <v>332</v>
+      </c>
+      <c r="G134" s="1">
+        <v>463</v>
+      </c>
+      <c r="H134" s="1">
+        <v>563</v>
+      </c>
+      <c r="I134" s="1">
+        <v>416</v>
+      </c>
+      <c r="J134" s="1">
+        <v>280</v>
+      </c>
+      <c r="K134" s="1">
+        <v>174</v>
+      </c>
+      <c r="L134" s="1">
+        <v>96</v>
+      </c>
+      <c r="M134" s="1">
+        <v>194</v>
+      </c>
+      <c r="N134" s="1">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="3">
+        <f>B133/N133</f>
+        <v>2.0671834625322998E-2</v>
+      </c>
+      <c r="C136" s="3">
+        <f>C133/N133</f>
+        <v>4.7249907715023992E-2</v>
+      </c>
+      <c r="D136" s="3">
+        <f>D133/N133</f>
+        <v>7.7519379844961239E-2</v>
+      </c>
+      <c r="E136" s="3">
+        <f>E133/N133</f>
+        <v>0.14322628276116647</v>
+      </c>
+      <c r="F136" s="3">
+        <f>F133/N133</f>
+        <v>0.1849390919158361</v>
+      </c>
+      <c r="G136" s="3">
+        <f>G133/N133</f>
+        <v>0.19490586932447398</v>
+      </c>
+      <c r="H136" s="3">
+        <f>H133/N133</f>
+        <v>0.1303063861203396</v>
+      </c>
+      <c r="I136" s="3">
+        <f>I133/N133</f>
+        <v>7.9734219269102985E-2</v>
+      </c>
+      <c r="J136" s="3">
+        <f>J133/N133</f>
+        <v>4.0974529346622372E-2</v>
+      </c>
+      <c r="K136" s="3">
+        <f>K133/N133</f>
+        <v>2.1410114433370247E-2</v>
+      </c>
+      <c r="L136" s="3">
+        <f>L133/N133</f>
+        <v>1.9564414913252122E-2</v>
+      </c>
+      <c r="M136" s="3">
+        <f>M133/N133</f>
+        <v>3.9497969730527868E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="3">
+        <f>B134/N134</f>
+        <v>0</v>
+      </c>
+      <c r="C137" s="3">
+        <f>C134/N134</f>
+        <v>4.0605389442598741E-3</v>
+      </c>
+      <c r="D137" s="3">
+        <f>D134/N134</f>
+        <v>1.4027316352897749E-2</v>
+      </c>
+      <c r="E137" s="3">
+        <f>E134/N134</f>
+        <v>5.278700627537837E-2</v>
+      </c>
+      <c r="F137" s="3">
+        <f>F134/N134</f>
+        <v>0.12255444813584349</v>
+      </c>
+      <c r="G137" s="3">
+        <f>G134/N134</f>
+        <v>0.17091177556293835</v>
+      </c>
+      <c r="H137" s="3">
+        <f>H134/N134</f>
+        <v>0.20782576596530086</v>
+      </c>
+      <c r="I137" s="3">
+        <f>I134/N134</f>
+        <v>0.15356220007382798</v>
+      </c>
+      <c r="J137" s="3">
+        <f>J134/N134</f>
+        <v>0.10335917312661498</v>
+      </c>
+      <c r="K137" s="3">
+        <f>K134/N134</f>
+        <v>6.4230343300110737E-2</v>
+      </c>
+      <c r="L137" s="3">
+        <f>L134/N134</f>
+        <v>3.5437430786267994E-2</v>
+      </c>
+      <c r="M137" s="3">
+        <f>M134/N134</f>
+        <v>7.1613141380583237E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/analyze/stats.xlsx
+++ b/analyze/stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC676734-2B0A-4433-B8DB-47941315B5AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59796A63-1F58-4864-84FC-37D0D0F47394}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="31">
   <si>
     <t>投资收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>7-14-24~【2018-2019.04.26】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-14-24~【2018-2019.04.30】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14507,6 +14511,498 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$612</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$611:$M$611</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$612:$M$612</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5316-4CC9-AA2E-C36D36E29B5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list!$A$613</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>list!$B$611:$M$611</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list!$B$613:$M$613</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5316-4CC9-AA2E-C36D36E29B5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="602589496"/>
+        <c:axId val="602592056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="602589496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602592056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="602592056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602589496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -15010,7 +15506,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -15528,7 +16024,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -15960,524 +16456,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="546030328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>6-12-24</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>compare!$A$62</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>股票涨幅</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>compare!$B$61:$M$61</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>&lt;-50%</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[-50%~-40%]</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[-40%~-30%]</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[-30%~-20%]</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[-20%~-10%]</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[-10%~0%]</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[0~10%]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[10%~20%]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>[20%~30%]</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>[30%~40%]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[40%~50%]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>&gt;50%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>compare!$B$62:$M$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E77-4103-8E88-3402A4FABD7F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>compare!$A$63</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>投资收益</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>compare!$B$61:$M$61</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>&lt;-50%</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[-50%~-40%]</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[-40%~-30%]</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[-30%~-20%]</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[-20%~-10%]</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[-10%~0%]</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[0~10%]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[10%~20%]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>[20%~30%]</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>[30%~40%]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>[40%~50%]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>&gt;50%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>compare!$B$63:$M$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E77-4103-8E88-3402A4FABD7F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="588129528"/>
-        <c:axId val="588131128"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="588129528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="588131128"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="588131128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="588129528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17138,6 +17116,524 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>compare!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$61:$M$61</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$62:$M$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E77-4103-8E88-3402A4FABD7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$61:$M$61</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$63:$M$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E77-4103-8E88-3402A4FABD7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="588129528"/>
+        <c:axId val="588131128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="588129528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588131128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="588131128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588129528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>6-12-24</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>compare!$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -17574,7 +18070,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -18066,7 +18562,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -18558,7 +19054,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -18964,6 +19460,990 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="658090488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$153:$M$153</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$154:$M$154</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9266394961096701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5954057058169697E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13560577991848832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17895516858095592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19896257873286402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13634679510929973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.114116339384958E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5201926639496112E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7788069655427936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6672841793256763E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3349388662467583E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9014-4D80-BE71-44B2DF9ED8D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$155</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$153:$M$153</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$155:$M$155</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3708781030011115E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2982586143015931E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12337902927010004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17117450907743609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20674323823638385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15190811411633939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10448314190440904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3356798814375698E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4457206372730642E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4101519081141168E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9014-4D80-BE71-44B2DF9ED8D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="650195832"/>
+        <c:axId val="650192312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="650195832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650192312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="650192312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650195832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$172</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票涨幅</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$171:$M$171</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$172:$M$172</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9266394961096701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5954057058169697E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13560577991848832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17895516858095592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19896257873286402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13634679510929973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.114116339384958E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5201926639496112E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7788069655427936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6672841793256763E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3349388662467583E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23F3-48BF-8A10-1D5ACA68AA3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare!$A$173</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>投资收益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compare!$B$171:$M$171</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>&lt;-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[-50%~-40%]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[-40%~-30%]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[-30%~-20%]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[-20%~-10%]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[-10%~0%]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[0~10%]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[10%~20%]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[20%~30%]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[30%~40%]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[40%~50%]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compare!$B$173:$M$173</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0755835494627642E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3708781030011115E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1871063356798815E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12189699888847721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17117450907743609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20785476102260098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15116709892552796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10448314190440904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5209336791404227E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3716191181919229E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5213041867358277E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23F3-48BF-8A10-1D5ACA68AA3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="495006200"/>
+        <c:axId val="495003320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="495006200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495003320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="495003320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495006200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23030,6 +24510,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors44.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors45.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors46.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -41842,6 +43442,1515 @@
 </file>
 
 <file path=xl/charts/style43.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style44.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style45.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style46.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -47636,6 +50745,169 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>600</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7329524" cy="1553809"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="图片 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B46E47-B9F4-417C-91C4-2562152FB980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655321" y="102176581"/>
+          <a:ext cx="7329524" cy="1553809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>599</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>615</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="67" name="图表 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4008E3C8-E167-4DE5-BB66-1E2C335B468A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>617</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>70996</xdr:colOff>
+      <xdr:row>626</xdr:row>
+      <xdr:rowOff>19803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="图片 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BC176E-9BC3-4211-A665-FF66E0A6BAFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655321" y="108135420"/>
+          <a:ext cx="7348095" cy="1597143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655319</xdr:colOff>
+      <xdr:row>632</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>116339</xdr:colOff>
+      <xdr:row>641</xdr:row>
+      <xdr:rowOff>115994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="图片 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2799799A-647A-4F33-A84F-723147EA727C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655319" y="110764320"/>
+          <a:ext cx="6540000" cy="1693334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -48281,6 +51553,161 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7329524" cy="1553809"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F8E84-45FD-477D-B20E-B1CFD020FEAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655321" y="105156001"/>
+          <a:ext cx="7329524" cy="1553809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BCE728-5A39-474A-9187-2462807D4AB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655319</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>443999</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>115994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8748D83D-970B-4A37-8D0A-766B3C51E775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655319" y="110764320"/>
+          <a:ext cx="6540000" cy="1693334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="图表 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AAE7AFB-7034-4723-834D-3B57309E102A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -48547,10 +51974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC596"/>
+  <dimension ref="A1:AC645"/>
   <sheetViews>
-    <sheetView topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="A598" sqref="A598"/>
+    <sheetView topLeftCell="A624" workbookViewId="0">
+      <selection activeCell="A632" sqref="A632:X645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -53007,6 +56434,381 @@
         <v>194</v>
       </c>
     </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B611" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J611" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K611" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L611" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M611" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>1</v>
+      </c>
+      <c r="B612" s="1">
+        <v>52</v>
+      </c>
+      <c r="C612" s="1">
+        <v>110</v>
+      </c>
+      <c r="D612" s="1">
+        <v>205</v>
+      </c>
+      <c r="E612" s="1">
+        <v>366</v>
+      </c>
+      <c r="F612" s="1">
+        <v>483</v>
+      </c>
+      <c r="G612" s="1">
+        <v>537</v>
+      </c>
+      <c r="H612" s="1">
+        <v>368</v>
+      </c>
+      <c r="I612" s="1">
+        <v>219</v>
+      </c>
+      <c r="J612" s="1">
+        <v>122</v>
+      </c>
+      <c r="K612" s="1">
+        <v>75</v>
+      </c>
+      <c r="L612" s="1">
+        <v>45</v>
+      </c>
+      <c r="M612" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>0</v>
+      </c>
+      <c r="B613" s="1">
+        <v>0</v>
+      </c>
+      <c r="C613" s="1">
+        <v>11</v>
+      </c>
+      <c r="D613" s="1">
+        <v>37</v>
+      </c>
+      <c r="E613" s="1">
+        <v>143</v>
+      </c>
+      <c r="F613" s="1">
+        <v>333</v>
+      </c>
+      <c r="G613" s="1">
+        <v>462</v>
+      </c>
+      <c r="H613" s="1">
+        <v>558</v>
+      </c>
+      <c r="I613" s="1">
+        <v>410</v>
+      </c>
+      <c r="J613" s="1">
+        <v>282</v>
+      </c>
+      <c r="K613" s="1">
+        <v>171</v>
+      </c>
+      <c r="L613" s="1">
+        <v>93</v>
+      </c>
+      <c r="M613" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B628" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G628" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H628" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J628" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K628" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L628" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M628" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>1</v>
+      </c>
+      <c r="B629" s="1">
+        <v>52</v>
+      </c>
+      <c r="C629" s="1">
+        <v>110</v>
+      </c>
+      <c r="D629" s="1">
+        <v>205</v>
+      </c>
+      <c r="E629" s="1">
+        <v>366</v>
+      </c>
+      <c r="F629" s="1">
+        <v>483</v>
+      </c>
+      <c r="G629" s="1">
+        <v>537</v>
+      </c>
+      <c r="H629" s="1">
+        <v>368</v>
+      </c>
+      <c r="I629" s="1">
+        <v>219</v>
+      </c>
+      <c r="J629" s="1">
+        <v>122</v>
+      </c>
+      <c r="K629" s="1">
+        <v>75</v>
+      </c>
+      <c r="L629" s="1">
+        <v>45</v>
+      </c>
+      <c r="M629" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>0</v>
+      </c>
+      <c r="B630" s="1">
+        <v>0</v>
+      </c>
+      <c r="C630" s="1">
+        <v>11</v>
+      </c>
+      <c r="D630" s="1">
+        <v>37</v>
+      </c>
+      <c r="E630" s="1">
+        <v>144</v>
+      </c>
+      <c r="F630" s="1">
+        <v>328</v>
+      </c>
+      <c r="G630" s="1">
+        <v>462</v>
+      </c>
+      <c r="H630" s="1">
+        <v>557</v>
+      </c>
+      <c r="I630" s="1">
+        <v>410</v>
+      </c>
+      <c r="J630" s="1">
+        <v>284</v>
+      </c>
+      <c r="K630" s="1">
+        <v>175</v>
+      </c>
+      <c r="L630" s="1">
+        <v>92</v>
+      </c>
+      <c r="M630" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B643" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H643" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I643" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J643" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K643" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L643" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M643" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>1</v>
+      </c>
+      <c r="B644" s="1">
+        <v>52</v>
+      </c>
+      <c r="C644" s="1">
+        <v>110</v>
+      </c>
+      <c r="D644" s="1">
+        <v>205</v>
+      </c>
+      <c r="E644" s="1">
+        <v>366</v>
+      </c>
+      <c r="F644" s="1">
+        <v>483</v>
+      </c>
+      <c r="G644" s="1">
+        <v>537</v>
+      </c>
+      <c r="H644" s="1">
+        <v>368</v>
+      </c>
+      <c r="I644" s="1">
+        <v>219</v>
+      </c>
+      <c r="J644" s="1">
+        <v>122</v>
+      </c>
+      <c r="K644" s="1">
+        <v>75</v>
+      </c>
+      <c r="L644" s="1">
+        <v>45</v>
+      </c>
+      <c r="M644" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>0</v>
+      </c>
+      <c r="B645" s="1">
+        <v>0</v>
+      </c>
+      <c r="C645" s="1">
+        <v>11</v>
+      </c>
+      <c r="D645" s="1">
+        <v>37</v>
+      </c>
+      <c r="E645" s="1">
+        <v>140</v>
+      </c>
+      <c r="F645" s="1">
+        <v>329</v>
+      </c>
+      <c r="G645" s="1">
+        <v>462</v>
+      </c>
+      <c r="H645" s="1">
+        <v>561</v>
+      </c>
+      <c r="I645" s="1">
+        <v>408</v>
+      </c>
+      <c r="J645" s="1">
+        <v>282</v>
+      </c>
+      <c r="K645" s="1">
+        <v>176</v>
+      </c>
+      <c r="L645" s="1">
+        <v>91</v>
+      </c>
+      <c r="M645" s="1">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53017,10 +56819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A7428-0272-4621-8266-47B00E14046B}">
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -54501,6 +58303,558 @@
         <v>7.1613141380583237E-2</v>
       </c>
     </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="1">
+        <v>52</v>
+      </c>
+      <c r="C151" s="1">
+        <v>110</v>
+      </c>
+      <c r="D151" s="1">
+        <v>205</v>
+      </c>
+      <c r="E151" s="1">
+        <v>366</v>
+      </c>
+      <c r="F151" s="1">
+        <v>483</v>
+      </c>
+      <c r="G151" s="1">
+        <v>537</v>
+      </c>
+      <c r="H151" s="1">
+        <v>368</v>
+      </c>
+      <c r="I151" s="1">
+        <v>219</v>
+      </c>
+      <c r="J151" s="1">
+        <v>122</v>
+      </c>
+      <c r="K151" s="1">
+        <v>75</v>
+      </c>
+      <c r="L151" s="1">
+        <v>45</v>
+      </c>
+      <c r="M151" s="1">
+        <v>117</v>
+      </c>
+      <c r="N151" s="1">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1">
+        <v>11</v>
+      </c>
+      <c r="D152" s="1">
+        <v>37</v>
+      </c>
+      <c r="E152" s="1">
+        <v>143</v>
+      </c>
+      <c r="F152" s="1">
+        <v>333</v>
+      </c>
+      <c r="G152" s="1">
+        <v>462</v>
+      </c>
+      <c r="H152" s="1">
+        <v>558</v>
+      </c>
+      <c r="I152" s="1">
+        <v>410</v>
+      </c>
+      <c r="J152" s="1">
+        <v>282</v>
+      </c>
+      <c r="K152" s="1">
+        <v>171</v>
+      </c>
+      <c r="L152" s="1">
+        <v>93</v>
+      </c>
+      <c r="M152" s="1">
+        <v>200</v>
+      </c>
+      <c r="N152" s="1">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="3">
+        <f>B151/N151</f>
+        <v>1.9266394961096701E-2</v>
+      </c>
+      <c r="C154" s="3">
+        <f>C151/N151</f>
+        <v>4.0755835494627642E-2</v>
+      </c>
+      <c r="D154" s="3">
+        <f>D151/N151</f>
+        <v>7.5954057058169697E-2</v>
+      </c>
+      <c r="E154" s="3">
+        <f>E151/N151</f>
+        <v>0.13560577991848832</v>
+      </c>
+      <c r="F154" s="3">
+        <f>F151/N151</f>
+        <v>0.17895516858095592</v>
+      </c>
+      <c r="G154" s="3">
+        <f>G151/N151</f>
+        <v>0.19896257873286402</v>
+      </c>
+      <c r="H154" s="3">
+        <f>H151/N151</f>
+        <v>0.13634679510929973</v>
+      </c>
+      <c r="I154" s="3">
+        <f>I151/N151</f>
+        <v>8.114116339384958E-2</v>
+      </c>
+      <c r="J154" s="3">
+        <f>J151/N151</f>
+        <v>4.5201926639496112E-2</v>
+      </c>
+      <c r="K154" s="3">
+        <f>K151/N151</f>
+        <v>2.7788069655427936E-2</v>
+      </c>
+      <c r="L154" s="3">
+        <f>L151/N151</f>
+        <v>1.6672841793256763E-2</v>
+      </c>
+      <c r="M154" s="3">
+        <f>M151/N151</f>
+        <v>4.3349388662467583E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="3">
+        <f>B152/N152</f>
+        <v>0</v>
+      </c>
+      <c r="C155" s="3">
+        <f>C152/N152</f>
+        <v>4.0755835494627642E-3</v>
+      </c>
+      <c r="D155" s="3">
+        <f>D152/N152</f>
+        <v>1.3708781030011115E-2</v>
+      </c>
+      <c r="E155" s="3">
+        <f>E152/N152</f>
+        <v>5.2982586143015931E-2</v>
+      </c>
+      <c r="F155" s="3">
+        <f>F152/N152</f>
+        <v>0.12337902927010004</v>
+      </c>
+      <c r="G155" s="3">
+        <f>G152/N152</f>
+        <v>0.17117450907743609</v>
+      </c>
+      <c r="H155" s="3">
+        <f>H152/N152</f>
+        <v>0.20674323823638385</v>
+      </c>
+      <c r="I155" s="3">
+        <f>I152/N152</f>
+        <v>0.15190811411633939</v>
+      </c>
+      <c r="J155" s="3">
+        <f>J152/N152</f>
+        <v>0.10448314190440904</v>
+      </c>
+      <c r="K155" s="3">
+        <f>K152/N152</f>
+        <v>6.3356798814375698E-2</v>
+      </c>
+      <c r="L155" s="3">
+        <f>L152/N152</f>
+        <v>3.4457206372730642E-2</v>
+      </c>
+      <c r="M155" s="3">
+        <f>M152/N152</f>
+        <v>7.4101519081141168E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="1">
+        <v>52</v>
+      </c>
+      <c r="C169" s="1">
+        <v>110</v>
+      </c>
+      <c r="D169" s="1">
+        <v>205</v>
+      </c>
+      <c r="E169" s="1">
+        <v>366</v>
+      </c>
+      <c r="F169" s="1">
+        <v>483</v>
+      </c>
+      <c r="G169" s="1">
+        <v>537</v>
+      </c>
+      <c r="H169" s="1">
+        <v>368</v>
+      </c>
+      <c r="I169" s="1">
+        <v>219</v>
+      </c>
+      <c r="J169" s="1">
+        <v>122</v>
+      </c>
+      <c r="K169" s="1">
+        <v>75</v>
+      </c>
+      <c r="L169" s="1">
+        <v>45</v>
+      </c>
+      <c r="M169" s="1">
+        <v>117</v>
+      </c>
+      <c r="N169">
+        <f>SUM(B169:M169)</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1">
+        <v>0</v>
+      </c>
+      <c r="C170" s="1">
+        <v>11</v>
+      </c>
+      <c r="D170" s="1">
+        <v>37</v>
+      </c>
+      <c r="E170" s="1">
+        <v>140</v>
+      </c>
+      <c r="F170" s="1">
+        <v>329</v>
+      </c>
+      <c r="G170" s="1">
+        <v>462</v>
+      </c>
+      <c r="H170" s="1">
+        <v>561</v>
+      </c>
+      <c r="I170" s="1">
+        <v>408</v>
+      </c>
+      <c r="J170" s="1">
+        <v>282</v>
+      </c>
+      <c r="K170" s="1">
+        <v>176</v>
+      </c>
+      <c r="L170" s="1">
+        <v>91</v>
+      </c>
+      <c r="M170" s="1">
+        <v>203</v>
+      </c>
+      <c r="N170">
+        <f>N169</f>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="3">
+        <f>B169/N169</f>
+        <v>1.9266394961096701E-2</v>
+      </c>
+      <c r="C172" s="3">
+        <f>C169/N169</f>
+        <v>4.0755835494627642E-2</v>
+      </c>
+      <c r="D172" s="3">
+        <f>D169/N169</f>
+        <v>7.5954057058169697E-2</v>
+      </c>
+      <c r="E172" s="3">
+        <f>E169/N169</f>
+        <v>0.13560577991848832</v>
+      </c>
+      <c r="F172" s="3">
+        <f>F169/N169</f>
+        <v>0.17895516858095592</v>
+      </c>
+      <c r="G172" s="3">
+        <f>G169/N169</f>
+        <v>0.19896257873286402</v>
+      </c>
+      <c r="H172" s="3">
+        <f>H169/N169</f>
+        <v>0.13634679510929973</v>
+      </c>
+      <c r="I172" s="3">
+        <f>I169/N169</f>
+        <v>8.114116339384958E-2</v>
+      </c>
+      <c r="J172" s="3">
+        <f>J169/N169</f>
+        <v>4.5201926639496112E-2</v>
+      </c>
+      <c r="K172" s="3">
+        <f>K169/N169</f>
+        <v>2.7788069655427936E-2</v>
+      </c>
+      <c r="L172" s="3">
+        <f>L169/N169</f>
+        <v>1.6672841793256763E-2</v>
+      </c>
+      <c r="M172" s="3">
+        <f>M169/N169</f>
+        <v>4.3349388662467583E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="3">
+        <f>B170/N170</f>
+        <v>0</v>
+      </c>
+      <c r="C173" s="3">
+        <f>C170/N170</f>
+        <v>4.0755835494627642E-3</v>
+      </c>
+      <c r="D173" s="3">
+        <f>D170/N170</f>
+        <v>1.3708781030011115E-2</v>
+      </c>
+      <c r="E173" s="3">
+        <f>E170/N170</f>
+        <v>5.1871063356798815E-2</v>
+      </c>
+      <c r="F173" s="3">
+        <f>F170/N170</f>
+        <v>0.12189699888847721</v>
+      </c>
+      <c r="G173" s="3">
+        <f>G170/N170</f>
+        <v>0.17117450907743609</v>
+      </c>
+      <c r="H173" s="3">
+        <f>H170/N170</f>
+        <v>0.20785476102260098</v>
+      </c>
+      <c r="I173" s="3">
+        <f>I170/N170</f>
+        <v>0.15116709892552796</v>
+      </c>
+      <c r="J173" s="3">
+        <f>J170/N170</f>
+        <v>0.10448314190440904</v>
+      </c>
+      <c r="K173" s="3">
+        <f>K170/N170</f>
+        <v>6.5209336791404227E-2</v>
+      </c>
+      <c r="L173" s="3">
+        <f>L170/N170</f>
+        <v>3.3716191181919229E-2</v>
+      </c>
+      <c r="M173" s="3">
+        <f>M170/N170</f>
+        <v>7.5213041867358277E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
